--- a/reports/resnet18_23_no_MMTM/prediction/0/prediction_train_0.xlsx
+++ b/reports/resnet18_23_no_MMTM/prediction/0/prediction_train_0.xlsx
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
         <v>1</v>
@@ -1050,7 +1050,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
         <v>1</v>
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62" t="n">
         <v>1</v>
@@ -1739,7 +1739,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101" t="n">
         <v>1</v>
@@ -1765,7 +1765,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C103" t="n">
         <v>1</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C112" t="n">
         <v>1</v>
@@ -2051,7 +2051,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
